--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CPRU_HES_9713\CPRU_Data\Working\Matt\delivery_cohort\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{91E29232-3AD3-4685-A049-5C0183F844A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C0C215-CDE2-4FC7-8DD7-A14D53F989D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="2808" yWindow="2808" windowWidth="17280" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
-    <sheet name="Coding" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="323">
   <si>
     <t>tokenid</t>
   </si>
@@ -38,6 +37,12 @@
     <t>ethnos</t>
   </si>
   <si>
+    <t>imd04_decile_cat</t>
+  </si>
+  <si>
+    <t>imd04ic</t>
+  </si>
+  <si>
     <t>rescty</t>
   </si>
   <si>
@@ -86,6 +91,15 @@
     <t>accident_injury_3yrs_prior_del</t>
   </si>
   <si>
+    <t>drug_alc_3yrs_prior_del</t>
+  </si>
+  <si>
+    <t>self_harm_3yrs_prior_del</t>
+  </si>
+  <si>
+    <t>violence_3yrs_prior_del</t>
+  </si>
+  <si>
     <t>srp_psych_3yrs_prior_del</t>
   </si>
   <si>
@@ -440,6 +454,21 @@
     <t>biresus_9</t>
   </si>
   <si>
+    <t>not_england_at_this_birth</t>
+  </si>
+  <si>
+    <t>not_england_at_any_birth</t>
+  </si>
+  <si>
+    <t>hes_activity_after_dod</t>
+  </si>
+  <si>
+    <t>abortion</t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
     <t>admidate</t>
   </si>
   <si>
@@ -728,144 +757,147 @@
     <t>Delivery date</t>
   </si>
   <si>
+    <t>Observed delivery number</t>
+  </si>
+  <si>
+    <t>Number of babies delivered on pregnancy</t>
+  </si>
+  <si>
+    <t>Cleaning rule employed to clean number of babies (see coding spreadsheet)</t>
+  </si>
+  <si>
+    <t>Number of previous pregnancies</t>
+  </si>
+  <si>
+    <t>Whether all live born, still born or a mix</t>
+  </si>
+  <si>
+    <t>Whether any variables indicating live or still birth conflicted</t>
+  </si>
+  <si>
+    <t>Whether this delivery is the mother's observed first live birth</t>
+  </si>
+  <si>
+    <t>Had an injury emergency admission in 3 years prior to delivery (Herbert et al)</t>
+  </si>
+  <si>
+    <t>Had an adversity emergency admission in 3 years prior to delivery (Herbert et al)</t>
+  </si>
+  <si>
+    <t>Had potential psychosomatic SRP in 3 years prior to delivery (Ni Chobhthaigh et al)</t>
+  </si>
+  <si>
+    <t>Had internalising SRP in 3 years prior to delivery (Ni Chobhthaigh et al)</t>
+  </si>
+  <si>
+    <t>Had externalising SRP in 3 years prior to delivery (Ni Chobhthaigh et al)</t>
+  </si>
+  <si>
+    <t>Had thought disorder SRP in 3 years prior to delivery (Ni Chobhthaigh et al)</t>
+  </si>
+  <si>
+    <t>Had self-harm SRP in 3 years prior to delivery (Ni Chobhthaigh et al)</t>
+  </si>
+  <si>
+    <t>Had schizophrenia code in 3 years prior to delivery (Pearson et al)</t>
+  </si>
+  <si>
+    <t>Had severe mood disorder code in 3 years prior to delivery (Pearson et al)</t>
+  </si>
+  <si>
+    <t>Had anxiety/somatoform/stress code in 3 years prior to delivery (Pearson et al)</t>
+  </si>
+  <si>
+    <t>Had other depression code in 3 years prior to delivery (Pearson et al)</t>
+  </si>
+  <si>
+    <t>Had drug or alcohol code in 3 years prior to delivery (Pearson et al)</t>
+  </si>
+  <si>
+    <t>Had personality disorder code in 3 years prior to delivery (Pearson et al)</t>
+  </si>
+  <si>
+    <t>Had other psychiatric code in 3 years prior to delivery (Pearson et al)</t>
+  </si>
+  <si>
+    <t>Had developmental/behavioural/emotional code in 3 years prior to delivery (Pearson et al)</t>
+  </si>
+  <si>
+    <t>Had any Pearson et al MH/behavioural code in 3 years prior to delivery (Pearson et al)</t>
+  </si>
+  <si>
+    <t>Had any Hardelid et al chronic health condition code in 3 years prior to delivery (Hardelid et al)</t>
+  </si>
+  <si>
+    <t>Had any Charlson comorbidity index code in 3 years prior to delivery (Quan et al)</t>
+  </si>
+  <si>
+    <t>Had any intellectual disability code in 3 years prior to delivery (Sheehan et al)</t>
+  </si>
+  <si>
+    <t>Had any physical disability code in 3 years prior to delivery (Grant et al)</t>
+  </si>
+  <si>
+    <t>Had any hearing impairment code in 3 years prior to delivery (Grant et al)</t>
+  </si>
+  <si>
+    <t>Had any vision impairment code in 3 years prior to delivery (Grant et al)</t>
+  </si>
+  <si>
+    <t>Had any developmental disability code in 3 years prior to delivery (Grant et al)</t>
+  </si>
+  <si>
+    <t>Had any Grant et al disability code in 3 years prior to delivery (Grant et al)</t>
+  </si>
+  <si>
+    <t>Had English National Maternity Morbidity Outcome Indicator code in 3 years prior to delivery (Nair et al)</t>
+  </si>
+  <si>
+    <t>Had high risk pregnancy code in 3 years prior to delivery (Langham et al)</t>
+  </si>
+  <si>
+    <t>Mother aged &lt;20 years at this delivery</t>
+  </si>
+  <si>
+    <t>Mothas was ever aged &lt;20 years at an delivery</t>
+  </si>
+  <si>
+    <t>Any children on this delivery were born preterm</t>
+  </si>
+  <si>
+    <t>Date of death (ONS mortality data)</t>
+  </si>
+  <si>
+    <t>Date of death (HES APC)</t>
+  </si>
+  <si>
+    <t>Date of death (ONS mortality data if present, HES APC if not)</t>
+  </si>
+  <si>
+    <t>Cause of death (ONS mortality data)</t>
+  </si>
+  <si>
+    <t>Status of person conducting delivery</t>
+  </si>
+  <si>
+    <t>Baby's phenotypic sex</t>
+  </si>
+  <si>
+    <t>Birth order</t>
+  </si>
+  <si>
+    <t>Birth weight</t>
+  </si>
+  <si>
+    <t>Delivery method</t>
+  </si>
+  <si>
+    <t>Gestational age</t>
+  </si>
+  <si>
     <t>Birth status</t>
   </si>
   <si>
-    <t>Observed delivery number</t>
-  </si>
-  <si>
-    <t>Cleaning rule employed to clean number of babies (see coding spreadsheet)</t>
-  </si>
-  <si>
-    <t>Whether all live born, still born or a mix</t>
-  </si>
-  <si>
-    <t>Whether any variables indicating live or still birth conflicted</t>
-  </si>
-  <si>
-    <t>Whether this delivery is the mother's observed first live birth</t>
-  </si>
-  <si>
-    <t>Had an injury emergency admission in 3 years prior to delivery (Herbert et al)</t>
-  </si>
-  <si>
-    <t>Had an adversity emergency admission in 3 years prior to delivery (Herbert et al)</t>
-  </si>
-  <si>
-    <t>Had an acidental injury emergency admission in 3 years prior to delivery (Herbert et al)</t>
-  </si>
-  <si>
-    <t>Had schizophrenia code in 3 years prior to delivery (Pearson et al)</t>
-  </si>
-  <si>
-    <t>Had potential psychosomatic SRP in 3 years prior to delivery (Ni Chobhthaigh et al)</t>
-  </si>
-  <si>
-    <t>Had internalising SRP in 3 years prior to delivery (Ni Chobhthaigh et al)</t>
-  </si>
-  <si>
-    <t>Had externalising SRP in 3 years prior to delivery (Ni Chobhthaigh et al)</t>
-  </si>
-  <si>
-    <t>Had thought disorder SRP in 3 years prior to delivery (Ni Chobhthaigh et al)</t>
-  </si>
-  <si>
-    <t>Had self-harm SRP in 3 years prior to delivery (Ni Chobhthaigh et al)</t>
-  </si>
-  <si>
-    <t>Had severe mood disorder code in 3 years prior to delivery (Pearson et al)</t>
-  </si>
-  <si>
-    <t>Had anxiety/somatoform/stress code in 3 years prior to delivery (Pearson et al)</t>
-  </si>
-  <si>
-    <t>Had other depression code in 3 years prior to delivery (Pearson et al)</t>
-  </si>
-  <si>
-    <t>Had drug or alcohol code in 3 years prior to delivery (Pearson et al)</t>
-  </si>
-  <si>
-    <t>Had personality disorder code in 3 years prior to delivery (Pearson et al)</t>
-  </si>
-  <si>
-    <t>Had other psychiatric code in 3 years prior to delivery (Pearson et al)</t>
-  </si>
-  <si>
-    <t>Had developmental/behavioural/emotional code in 3 years prior to delivery (Pearson et al)</t>
-  </si>
-  <si>
-    <t>Had any Pearson et al MH/behavioural code in 3 years prior to delivery (Pearson et al)</t>
-  </si>
-  <si>
-    <t>Had any Hardelid et al chronic health condition code in 3 years prior to delivery (Hardelid et al)</t>
-  </si>
-  <si>
-    <t>Had any Charlson comorbidity index code in 3 years prior to delivery (Quan et al)</t>
-  </si>
-  <si>
-    <t>Had any intellectual disability code in 3 years prior to delivery (Sheehan et al)</t>
-  </si>
-  <si>
-    <t>Had any physical disability code in 3 years prior to delivery (Grant et al)</t>
-  </si>
-  <si>
-    <t>Had any hearing impairment code in 3 years prior to delivery (Grant et al)</t>
-  </si>
-  <si>
-    <t>Had any vision impairment code in 3 years prior to delivery (Grant et al)</t>
-  </si>
-  <si>
-    <t>Had any developmental disability code in 3 years prior to delivery (Grant et al)</t>
-  </si>
-  <si>
-    <t>Had any Grant et al disability code in 3 years prior to delivery (Grant et al)</t>
-  </si>
-  <si>
-    <t>Had English National Maternity Morbidity Outcome Indicator code in 3 years prior to delivery (Nair et al)</t>
-  </si>
-  <si>
-    <t>Had high risk pregnancy code in 3 years prior to delivery (Langham et al)</t>
-  </si>
-  <si>
-    <t>Mother aged &lt;20 years at this delivery</t>
-  </si>
-  <si>
-    <t>Mothas was ever aged &lt;20 years at an delivery</t>
-  </si>
-  <si>
-    <t>Any children on this delivery were born preterm</t>
-  </si>
-  <si>
-    <t>Date of death (ONS mortality data)</t>
-  </si>
-  <si>
-    <t>Date of death (HES APC)</t>
-  </si>
-  <si>
-    <t>Date of death (ONS mortality data if present, HES APC if not)</t>
-  </si>
-  <si>
-    <t>Cause of death (ONS mortality data)</t>
-  </si>
-  <si>
-    <t>Status of person conducting delivery</t>
-  </si>
-  <si>
-    <t>Baby's phenotypic sex</t>
-  </si>
-  <si>
-    <t>Birth order</t>
-  </si>
-  <si>
-    <t>Birth weight</t>
-  </si>
-  <si>
-    <t>Delivery method</t>
-  </si>
-  <si>
-    <t>Gestational age</t>
-  </si>
-  <si>
     <t>Method used to get the baby breathing normally</t>
   </si>
   <si>
@@ -908,85 +940,55 @@
     <t>Antenatal days of stay</t>
   </si>
   <si>
+    <t>Delivery place change reason</t>
+  </si>
+  <si>
+    <t>Delivery place intended</t>
+  </si>
+  <si>
+    <t>Labour or delivery onset method</t>
+  </si>
+  <si>
+    <t>Anaesthetic given post labour or delivery</t>
+  </si>
+  <si>
+    <t>Anaesthetic given during labour or delivery</t>
+  </si>
+  <si>
     <t>Postnatal days of stay</t>
   </si>
   <si>
-    <t>Delivery place change reason</t>
-  </si>
-  <si>
-    <t>Delivery place intended</t>
-  </si>
-  <si>
-    <t>Labour or delivery onset method</t>
-  </si>
-  <si>
-    <t>Anaesthetic given post labour or delivery</t>
-  </si>
-  <si>
-    <t>Anaesthetic given during labour or delivery</t>
-  </si>
-  <si>
-    <t>Number of previous pregnancies</t>
-  </si>
-  <si>
-    <t>Number of babies delivered on pregnancy</t>
-  </si>
-  <si>
-    <t>For most variables, see the HES APC TOS for coding definitions</t>
-  </si>
-  <si>
-    <t>The cleaning rules are as follows</t>
-  </si>
-  <si>
-    <t>The number of babies was cleaned with reference to diagnostic codes and the number of complete maternity tail variables (sexbaby, birorder, birweit, delmeth, gestat, birstat, biresus)</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>numbaby_clean is set to numbaby</t>
-  </si>
-  <si>
-    <t>numbaby_clean is set to the number of complete maternity tail variables</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Numbaby is not missing. All variables agree. Prefer original numbaby coding.</t>
-  </si>
-  <si>
-    <t>Numbaby is not missing. Conflict with diagnoses but completeness of maternity tail variables agree. Prefer completeness of maternity tail variables.</t>
-  </si>
-  <si>
-    <t>Numbaby is not missing. Conflict with completeness of maternity tail variables, which themselves conflict but diagnoses agree among themselves. Prefer diagnosis coding.</t>
-  </si>
-  <si>
-    <t>numbaby_clean is set to 1 if diagnoses indicate singletons, 2 if diagnoses indicate twins (cannot set for multiples as diagnoses do not give exact number of multiples)</t>
-  </si>
-  <si>
-    <t>Numbaby is not missing. Conflict with completeness of maternity tail variables, conflict with diagnoses, conflicting diagnoses. Prefer original numbaby coding</t>
-  </si>
-  <si>
-    <t>Numbaby conflicts with number of complete maternity tail variables but diagnoses agree. Prefer diagnoses</t>
-  </si>
-  <si>
-    <t>Numbaby conflicts with number of complete maternity tail variables and diagnoses disagree. Prefer original numbaby coding</t>
-  </si>
-  <si>
-    <t>Remaining cases where numbaby is not missing</t>
-  </si>
-  <si>
-    <t>Numbaby is missing. Diagnoses agree</t>
-  </si>
-  <si>
-    <t>Remaining where numbaby is missing. Completeness of maternity tail variables agree</t>
-  </si>
-  <si>
-    <t>All remaining cases - not possible to clean</t>
-  </si>
-  <si>
-    <t>numbaby_clean is set to missing (these are exclueded and so will not appear in the final dataset)</t>
+    <t>IMD decile</t>
+  </si>
+  <si>
+    <t>IMD IDACI score</t>
+  </si>
+  <si>
+    <t>Had an accidental injury emergency admission in 3 years prior to delivery (Herbert et al)</t>
+  </si>
+  <si>
+    <t>Had a drug or alcohol admission in 3 years prior to delivery (Herbert et al)</t>
+  </si>
+  <si>
+    <t>Had a self-harm admission in 3 years prior to delivery (Herbert et al)</t>
+  </si>
+  <si>
+    <t>Had a violence admission in 3 years prior to delivery (Herbert et al)</t>
+  </si>
+  <si>
+    <t>Mother not resident in England at time of this delivery</t>
+  </si>
+  <si>
+    <t>Mother ever not resident in England at any delivery</t>
+  </si>
+  <si>
+    <t>Had HES APC activity after recorded date of death</t>
+  </si>
+  <si>
+    <t>Abortion code recorded</t>
+  </si>
+  <si>
+    <t>Exclude based on exclusion criteria (see documentation)</t>
   </si>
 </sst>
 </file>
@@ -1470,11 +1472,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1830,2040 +1829,1891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B224"/>
+  <dimension ref="A1:B234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>201</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>203</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>205</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>206</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>207</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>208</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>209</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>210</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>211</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>212</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>213</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>214</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>215</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>216</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>217</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>218</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>219</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>220</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>221</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>222</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>295</v>
+      <c r="B224" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>2.1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C12" t="s">
-        <v>309</v>
-      </c>
-      <c r="D12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C14" t="s">
-        <v>309</v>
-      </c>
-      <c r="D14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>306</v>
-      </c>
-      <c r="D15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>3.1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D16" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>306</v>
-      </c>
-      <c r="D17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>3.2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>309</v>
-      </c>
-      <c r="D18" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>306</v>
-      </c>
-      <c r="D19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>309</v>
-      </c>
-      <c r="D20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>306</v>
-      </c>
-      <c r="D21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C22" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>306</v>
-      </c>
-      <c r="D23" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>5.2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D24" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>306</v>
-      </c>
-      <c r="D25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>309</v>
-      </c>
-      <c r="D26" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>306</v>
-      </c>
-      <c r="D27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>